--- a/Punto_de_venta.xlsx
+++ b/Punto_de_venta.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
@@ -536,6 +536,25 @@
         <v>5.2</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08/23/22</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>453466</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>60</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Punto_de_venta.xlsx
+++ b/Punto_de_venta.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
@@ -555,6 +555,44 @@
         <v>7.800000000000001</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08/27/22</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>892720</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08/29/22</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>330866</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>160</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Punto_de_venta.xlsx
+++ b/Punto_de_venta.xlsx
@@ -399,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
@@ -593,6 +593,25 @@
         <v>20.8</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/20/22</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>945425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
